--- a/3. G_Documents/2. Products_Firmware/VNSH02_C43/BOX_Camera.xlsx
+++ b/3. G_Documents/2. Products_Firmware/VNSH02_C43/BOX_Camera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\3. G_Documents\2. Products_Firmware\VNSH02_C43\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B66BD8B-F23E-49BD-A00D-73A9C44206E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67888375-492D-45BD-A336-4474941D66E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{817CF325-9735-4180-B807-100625816377}"/>
+    <workbookView xWindow="4530" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{817CF325-9735-4180-B807-100625816377}"/>
   </bookViews>
   <sheets>
     <sheet name="BOX_Camera" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
